--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T21:11:53+00:00</t>
+    <t>2021-10-07T21:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T09:47:10+00:00</t>
+    <t>2021-10-12T12:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -195,25 +195,25 @@
     <t>1002</t>
   </si>
   <si>
-    <t>Erkrankt und zu Hause</t>
+    <t>Erkrankt und zu Hause</t>
   </si>
   <si>
     <t>1003</t>
   </si>
   <si>
-    <t>Erkrankt und im Krankenhaus ohne Sauerstofftherapie</t>
+    <t>Erkrankt und im Krankenhaus ohne Sauerstofftherapie</t>
   </si>
   <si>
     <t>1004</t>
   </si>
   <si>
-    <t>Erkrankt und im Krankenhaus mit Sauerstofftherapie</t>
+    <t>Erkrankt und im Krankenhaus mit Sauerstofftherapie</t>
   </si>
   <si>
     <t>1005</t>
   </si>
   <si>
-    <t>Erkrankt und im Krankenhaus auf einer Intensivstation</t>
+    <t>Erkrankt und im Krankenhaus auf einer Intensivstation</t>
   </si>
   <si>
     <t>2001</t>
@@ -363,7 +363,7 @@
     <t>8005</t>
   </si>
   <si>
-    <t>Nicht mehr (früher gelegentlich)</t>
+    <t>Nicht mehr (früher gelegentlich)</t>
   </si>
   <si>
     <t>9001</t>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T12:09:14+00:00</t>
+    <t>2021-10-12T12:33:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -153,13 +153,13 @@
     <t>q1007</t>
   </si>
   <si>
-    <t>Injection site pain at rest (finding)</t>
+    <t>Injection site pain at rest</t>
   </si>
   <si>
     <t>q1008</t>
   </si>
   <si>
-    <t>Injection site pain with pressure or movement (finding)</t>
+    <t>Injection site pain with pressure or movement</t>
   </si>
   <si>
     <t>0001</t>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="150">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T12:33:34+00:00</t>
+    <t>2021-10-12T17:20:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>45</t>
+    <t>57</t>
   </si>
   <si>
     <t>Level</t>
@@ -394,6 +394,75 @@
   </si>
   <si>
     <t>5 oder mehr alkoholische Getränke pro Tag</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>Fieber und/oder Schüttelfrost (inkl. Sich fiebrig fühlen)</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>Abgeschlagenheit und/oder vermehrte Müdigkeit</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>Neu aufgetretene oder Verstärkung vorbestehender Muskelschmerzen</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>Neu aufgetretene oder Verstärkung vorbestehender Gelenkschmerzen</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>Schwierigkeiten beim Atmen und/oder Luftnot</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>Übelkeit und/oder Erbrechen</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>Durchfall und/oder dünnerer Stuhl</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>11001</t>
+  </si>
+  <si>
+    <t>Ein wenig (keine Einschränkung täglicher Aktivitäten)</t>
+  </si>
+  <si>
+    <t>11002</t>
+  </si>
+  <si>
+    <t>Mäßig bis stark (Einschränkung täglicher Aktivitäten)</t>
+  </si>
+  <si>
+    <t>11003</t>
+  </si>
+  <si>
+    <t>Sehr stark (tägliche Aktivitäten sind nicht mehr möglich)</t>
+  </si>
+  <si>
+    <t>11004</t>
+  </si>
+  <si>
+    <t>Potenziell lebensbedrohlich (Behandlung in Rettungsstelle oder Hospitalisierung)</t>
   </si>
 </sst>
 </file>
@@ -694,7 +763,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1254,6 +1323,150 @@
       </c>
       <c r="D46" s="2"/>
     </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:20:00+00:00</t>
+    <t>2021-10-12T17:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:32:20+00:00</t>
+    <t>2021-10-12T18:03:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:31:05+00:00</t>
+    <t>2021-10-13T21:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:39:19+00:00</t>
+    <t>2021-10-15T12:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T12:18:04+00:00</t>
+    <t>2021-10-19T07:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T07:51:56+00:00</t>
+    <t>2021-10-19T09:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T09:50:53+00:00</t>
+    <t>2021-10-19T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:41:32+00:00</t>
+    <t>2021-10-19T21:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:05:56+00:00</t>
+    <t>2021-10-19T21:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-vaccination-module.xlsx
+++ b/CodeSystem-napkon-vaccination-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:09:33+00:00</t>
+    <t>2021-10-19T21:35:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
